--- a/Discharge/Discharge_2019/Discharge_July15.xlsx
+++ b/Discharge/Discharge_2019/Discharge_July15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador/Ecuador/Analysis/Discharge/Discharge_ReCalibrated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_8BEA223419E13EED4661CB225DDCB7F7672073F2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDB9CAE7-B63B-42E4-B58C-8C6BCCCDB91F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9D7233-28F5-E44F-A4D9-B733A507B4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="940" windowWidth="7680" windowHeight="8950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="1180" windowWidth="10000" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stn3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Station 3</t>
   </si>
@@ -65,13 +65,24 @@
   <si>
     <t>Qtotal</t>
   </si>
+  <si>
+    <t>new depth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -417,7 +429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.65</v>
       </c>
@@ -436,7 +448,7 @@
         <v>0.70810887999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.7</v>
       </c>
@@ -455,7 +467,7 @@
         <v>5.3999999999999933E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -474,7 +486,7 @@
         <v>1.960000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -493,7 +505,7 @@
         <v>6.4400000000000054E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.85</v>
       </c>
@@ -512,7 +524,7 @@
         <v>8.1599999999999881E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.9</v>
       </c>
@@ -531,7 +543,7 @@
         <v>0.1003000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.95</v>
       </c>
@@ -550,7 +562,7 @@
         <v>0.10199999999999987</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -569,7 +581,7 @@
         <v>9.2700000000000074E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.05</v>
       </c>
@@ -588,7 +600,7 @@
         <v>7.3000000000000065E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -607,7 +619,7 @@
         <v>6.3650000000000054E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.1499999999999999</v>
       </c>
@@ -626,7 +638,7 @@
         <v>4.9349999999999825E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -645,7 +657,7 @@
         <v>2.8800000000000023E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.25</v>
       </c>
@@ -664,7 +676,7 @@
         <v>2.7000000000000027E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.3</v>
       </c>
@@ -683,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -703,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.65</v>
       </c>
@@ -720,10 +732,10 @@
       </c>
       <c r="F20">
         <f>SUM(E20:E38)</f>
-        <v>4.048616E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.1270715200000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.7</v>
       </c>
@@ -743,7 +755,7 @@
         <v>3.088799999999996E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.75</v>
       </c>
@@ -763,7 +775,7 @@
         <v>1.1211200000000011E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.8</v>
       </c>
@@ -783,7 +795,7 @@
         <v>3.683680000000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.85</v>
       </c>
@@ -803,7 +815,7 @@
         <v>4.6675199999999936E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.9</v>
       </c>
@@ -823,7 +835,7 @@
         <v>5.737160000000005E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.95</v>
       </c>
@@ -843,7 +855,7 @@
         <v>5.8343999999999931E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -863,7 +875,7 @@
         <v>5.3024400000000046E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.05</v>
       </c>
@@ -883,7 +895,7 @@
         <v>4.1756000000000041E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.1000000000000001</v>
       </c>
@@ -903,7 +915,7 @@
         <v>3.6407800000000036E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.1499999999999999</v>
       </c>
@@ -923,7 +935,7 @@
         <v>2.8228199999999902E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.2</v>
       </c>
@@ -943,7 +955,7 @@
         <v>1.6473600000000014E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1.25</v>
       </c>
@@ -963,7 +975,7 @@
         <v>1.5444000000000015E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.3</v>
       </c>
@@ -980,6 +992,311 @@
       </c>
       <c r="E33">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.65</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>C20*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>A37</f>
+        <v>0.65</v>
+      </c>
+      <c r="F37">
+        <f>SUM(E37:E55)</f>
+        <v>0.1028348464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.7</v>
+      </c>
+      <c r="B38">
+        <v>5.1480000000000005E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C50" si="7">C21*2.54</f>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D50" si="8">A38</f>
+        <v>0.7</v>
+      </c>
+      <c r="E38">
+        <f>(D38-D37)*(B38)*C38</f>
+        <v>7.8455519999999913E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.75</v>
+      </c>
+      <c r="B39">
+        <v>0.16016</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="7"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="E39">
+        <f>(D39-D38)*(B39)*C39</f>
+        <v>2.8476448000000023E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.8</v>
+      </c>
+      <c r="B40">
+        <v>0.52623999999999993</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="7"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:E50" si="9">(D40-D39)*(B40)*C40</f>
+        <v>9.3565472000000077E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.85</v>
+      </c>
+      <c r="B41">
+        <v>0.58343999999999996</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="7"/>
+        <v>0.40640000000000004</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="9"/>
+        <v>1.1855500799999984E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.9</v>
+      </c>
+      <c r="B42">
+        <v>0.67496</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="7"/>
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="9"/>
+        <v>1.4572386400000012E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.95</v>
+      </c>
+      <c r="B43">
+        <v>0.68640000000000001</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="7"/>
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="8"/>
+        <v>0.95</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="9"/>
+        <v>1.4819375999999981E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0.58916000000000002</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="7"/>
+        <v>0.4572</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="9"/>
+        <v>1.3468197600000011E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1.05</v>
+      </c>
+      <c r="B45">
+        <v>0.41755999999999999</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="7"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="9"/>
+        <v>1.0606024000000009E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B46">
+        <v>0.38324000000000003</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="7"/>
+        <v>0.48260000000000003</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="9"/>
+        <v>9.2475812000000091E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B47">
+        <v>0.26884000000000002</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="7"/>
+        <v>0.53339999999999999</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="8"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="9"/>
+        <v>7.1699627999999753E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1.2</v>
+      </c>
+      <c r="B48">
+        <v>0.13727999999999999</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="7"/>
+        <v>0.60960000000000003</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="9"/>
+        <v>4.1842944000000035E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1.25</v>
+      </c>
+      <c r="B49">
+        <v>0.1144</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="7"/>
+        <v>0.68580000000000008</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="9"/>
+        <v>3.9227760000000046E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1.3</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -992,13 +1309,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1006,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.65</v>
       </c>
@@ -1045,7 +1362,7 @@
         <v>0.65794999999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.7</v>
       </c>
@@ -1064,7 +1381,7 @@
         <v>0.10789999999999987</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -1083,7 +1400,7 @@
         <v>0.11040000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -1102,7 +1419,7 @@
         <v>0.1140000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.85</v>
       </c>
@@ -1121,7 +1438,7 @@
         <v>0.12284999999999983</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.9</v>
       </c>
@@ -1140,7 +1457,7 @@
         <v>9.4500000000000084E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.95</v>
       </c>
@@ -1159,7 +1476,7 @@
         <v>4.9999999999999933E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1178,7 +1495,7 @@
         <v>2.0900000000000023E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.05</v>
       </c>
@@ -1197,7 +1514,7 @@
         <v>7.2000000000000059E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -1216,7 +1533,7 @@
         <v>9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.1499999999999999</v>
       </c>
@@ -1235,7 +1552,7 @@
         <v>7.9999999999999724E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.2</v>
       </c>
@@ -1254,7 +1571,7 @@
         <v>1.3200000000000012E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.25</v>
       </c>
@@ -1273,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1293,7 +1610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.65</v>
       </c>
@@ -1313,7 +1630,7 @@
         <v>3.7634739999999986E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.7</v>
       </c>
@@ -1333,7 +1650,7 @@
         <v>6.1718799999999924E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.75</v>
       </c>
@@ -1353,7 +1670,7 @@
         <v>6.3148800000000045E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.8</v>
       </c>
@@ -1373,7 +1690,7 @@
         <v>6.5208000000000054E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.85</v>
       </c>
@@ -1393,7 +1710,7 @@
         <v>7.0270199999999915E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.9</v>
       </c>
@@ -1413,7 +1730,7 @@
         <v>5.4054000000000046E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.95</v>
       </c>
@@ -1433,7 +1750,7 @@
         <v>2.8599999999999967E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1453,7 +1770,7 @@
         <v>1.1954800000000012E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.05</v>
       </c>
@@ -1473,7 +1790,7 @@
         <v>4.1184000000000039E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.1000000000000001</v>
       </c>
@@ -1493,7 +1810,7 @@
         <v>5.1480000000000048E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.1499999999999999</v>
       </c>
@@ -1513,7 +1830,7 @@
         <v>4.5759999999999838E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.2</v>
       </c>
@@ -1533,7 +1850,7 @@
         <v>7.5504000000000066E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1.25</v>
       </c>
@@ -1553,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>(A32-A20)/2+A20</f>
         <v>0.95</v>
@@ -1573,21 +1890,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA27023E844F434EBFC790358068B4CE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="962119b939e32e01d6fe84b679c182bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18299441-e87c-4909-bb3a-a1a391a25027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185fd3cf949c73c8f7d83010548f2ed9" ns3:_="">
     <xsd:import namespace="18299441-e87c-4909-bb3a-a1a391a25027"/>
@@ -1771,31 +2073,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DAE827A-ECD3-4FFF-8835-41441BA3657F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4E182EA-9101-4726-B6C6-778CE23E5E5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05B077F7-6187-4AC9-98E6-E940A3228C18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1811,4 +2104,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4E182EA-9101-4726-B6C6-778CE23E5E5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DAE827A-ECD3-4FFF-8835-41441BA3657F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>